--- a/src/main/resources/template/excel/export/PurchaseGoodsSkuCodeTemple.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseGoodsSkuCodeTemple.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="6495"/>
+    <workbookView windowWidth="23280" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$E$4</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>货号</t>
   </si>
   <si>
     <t>数量</t>
-  </si>
-  <si>
-    <t>是否赠品</t>
   </si>
   <si>
     <t>单价</t>
@@ -32,14 +31,27 @@
     <t>金额</t>
   </si>
   <si>
+    <t>是否赠品</t>
+  </si>
+  <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,26 +63,367 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -78,31 +431,851 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658495</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name=" 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="228600"/>
+          <a:ext cx="3011170" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -83719"/>
+            <a:gd name="adj2" fmla="val 9611"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" rtl="0" eaLnBrk="0" fontAlgn="base" hangingPunct="0">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>正式使用时，需删掉本说明和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>表中例子，栏位说明：                  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>货号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>必填，未填导入失败。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>数量：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>未填时，导入后默认为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>单价：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>未填时，导入后默认系统单价。赠品单价默认为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>金额：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>未填时，导入后默认为金额</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>数量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>单价。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>是否赠品：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>下拉选择【是、否】。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -148,7 +1321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +1356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,171 +1564,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="M7" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="4" width="12.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A2" s="7">
+        <v>340099</v>
+      </c>
+      <c r="B2" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A3" s="7">
+        <v>340099</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A4" s="7">
+        <v>340101</v>
+      </c>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>340099</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>340101</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="13.5" customHeight="1"/>
+    <row r="9" ht="13.5" customHeight="1"/>
+    <row r="10" ht="13.5" customHeight="1"/>
+    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="12" ht="13.5" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="15" ht="13.5" customHeight="1"/>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1"/>
+    <row r="18" ht="13.5" customHeight="1"/>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/PurchaseGoodsSkuCodeTemple.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseGoodsSkuCodeTemple.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>货号</t>
   </si>
@@ -26,9 +31,6 @@
   </si>
   <si>
     <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
   </si>
   <si>
     <t>是否赠品</t>
@@ -43,15 +45,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,151 +77,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,198 +92,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -446,251 +120,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -698,97 +130,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>658495</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name=" 2"/>
         <xdr:cNvSpPr/>
@@ -993,13 +386,6 @@
             </a:rPr>
             <a:t>表中例子，栏位说明：                  </a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1031,13 +417,6 @@
             </a:rPr>
             <a:t>必填，未填导入失败。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1089,13 +468,6 @@
             </a:rPr>
             <a:t>。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1147,13 +519,6 @@
             </a:rPr>
             <a:t>。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1225,13 +590,6 @@
             </a:rPr>
             <a:t>单价。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1263,13 +621,6 @@
             </a:rPr>
             <a:t>下拉选择【是、否】。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1564,23 +915,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="12.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="12.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1590,14 +940,11 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>340099</v>
       </c>
@@ -1607,14 +954,11 @@
       <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>340099</v>
       </c>
@@ -1624,14 +968,11 @@
       <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
-        <v>20</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>340101</v>
       </c>
@@ -1641,118 +982,115 @@
       <c r="C4" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1"/>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1"/>
-    <row r="9" ht="13.5" customHeight="1"/>
-    <row r="10" ht="13.5" customHeight="1"/>
-    <row r="11" ht="13.5" customHeight="1"/>
-    <row r="12" ht="13.5" customHeight="1"/>
-    <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1"/>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
-    <row r="17" ht="13.5" customHeight="1"/>
-    <row r="18" ht="13.5" customHeight="1"/>
-    <row r="19" ht="13.5" customHeight="1"/>
-    <row r="20" ht="13.5" customHeight="1"/>
-    <row r="21" ht="13.5" customHeight="1"/>
-    <row r="22" ht="13.5" customHeight="1"/>
-    <row r="23" ht="13.5" customHeight="1"/>
-    <row r="24" ht="13.5" customHeight="1"/>
-    <row r="25" ht="13.5" customHeight="1"/>
-    <row r="26" ht="13.5" customHeight="1"/>
-    <row r="27" ht="13.5" customHeight="1"/>
-    <row r="28" ht="13.5" customHeight="1"/>
-    <row r="29" ht="13.5" customHeight="1"/>
-    <row r="30" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
-    <row r="33" ht="13.5" customHeight="1"/>
-    <row r="34" ht="13.5" customHeight="1"/>
-    <row r="35" ht="13.5" customHeight="1"/>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/PurchaseGoodsSkuCodeTemple.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseGoodsSkuCodeTemple.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="9930"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>货号</t>
   </si>
@@ -45,11 +40,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +76,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,12 +229,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -120,9 +443,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -130,44 +695,83 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -181,14 +785,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name=" 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="228600"/>
+          <a:off x="4867275" y="228600"/>
           <a:ext cx="3011170" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -368,24 +972,31 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>正式使用时，需删掉本说明和</a:t>
+            <a:t>正式使用时，需删除本说明和</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>表中例子，栏位说明：                  </a:t>
+            <a:t>表中例子。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -405,18 +1016,25 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>货号：</a:t>
+            <a:t>栏位说明：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>必填，未填导入失败。</a:t>
+            <a:t>                  </a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -436,7 +1054,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>数量：</a:t>
+            <a:t>货号：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -446,28 +1064,15 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>未填时，导入后默认为</a:t>
+            <a:t>必填，未填导入失败。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>。</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -487,7 +1092,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>单价：</a:t>
+            <a:t>数量：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -497,7 +1102,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>未填时，导入后默认系统单价。赠品单价默认为</a:t>
+            <a:t>未填时，导入后默认为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
@@ -519,6 +1124,13 @@
             </a:rPr>
             <a:t>。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -538,7 +1150,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>金额：</a:t>
+            <a:t>单价：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -548,7 +1160,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>未填时，导入后默认为金额</a:t>
+            <a:t>未填时，导入后默认系统单价。赠品单价默认为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
@@ -558,7 +1170,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>=</a:t>
+            <a:t>0</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -568,28 +1180,15 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>数量</a:t>
+            <a:t>。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>单价。</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -621,6 +1220,31 @@
             </a:rPr>
             <a:t>下拉选择【是、否】。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -915,14 +1539,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="12.125" style="3" customWidth="1"/>
@@ -930,7 +1555,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -944,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:4">
       <c r="A2" s="7">
         <v>340099</v>
       </c>
@@ -958,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:4">
       <c r="A3" s="7">
         <v>340099</v>
       </c>
@@ -972,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="13.5" customHeight="1" spans="1:4">
       <c r="A4" s="7">
         <v>340101</v>
       </c>
@@ -986,111 +1611,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="13.5" customHeight="1"/>
+    <row r="9" ht="13.5" customHeight="1"/>
+    <row r="10" ht="13.5" customHeight="1"/>
+    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="12" ht="13.5" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="15" ht="13.5" customHeight="1"/>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1"/>
+    <row r="18" ht="13.5" customHeight="1"/>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>